--- a/Data/Tax/Time.xlsx
+++ b/Data/Tax/Time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzahusain/Library/Mobile Documents/com~apple~CloudDocs/Desktop/RA/SVARIV/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzahusain/Library/Mobile Documents/com~apple~CloudDocs/Desktop/RA/SVARIV/Data/Tax/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Years</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -356,302 +352,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1950</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
         <v>2008</v>
       </c>
     </row>
